--- a/SPINDLE/info_about_data/spindle_training_set.xlsx
+++ b/SPINDLE/info_about_data/spindle_training_set.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javig\Documents\Drive\DTU\MASTER THESIS\Code\SPINDLE_pycharm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javig\Documents\Drive\DTU\MASTER THESIS\Code\EEG_scoring\SPINDLE\info_about_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E80E1C6-7EAA-4E5C-84DE-4429F19F48C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D3A8B7-6642-444F-9741-6267EEA1580D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="16080" windowWidth="20730" windowHeight="11160" xr2:uid="{7CF1488C-0642-42D1-BD7F-79842B1A59D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7CF1488C-0642-42D1-BD7F-79842B1A59D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
   <si>
     <t>SCORER 1</t>
   </si>
@@ -69,13 +69,22 @@
   </si>
   <si>
     <t>NORMALIZED PER ROW</t>
+  </si>
+  <si>
+    <t>MOUSE 3</t>
+  </si>
+  <si>
+    <t>MOUSE 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +96,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -112,13 +127,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899FF704-5047-4C10-8ACC-C601831A03D3}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="P6" sqref="P6:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,12 +460,12 @@
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -475,8 +491,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
@@ -494,7 +510,7 @@
       <c r="F3">
         <v>1356</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J3" t="s">
@@ -513,8 +529,8 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -530,7 +546,7 @@
       <c r="F4">
         <v>2168</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="3"/>
       <c r="J4" t="s">
         <v>2</v>
       </c>
@@ -547,285 +563,432 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>9609</v>
+      </c>
+      <c r="D5">
+        <v>6797</v>
+      </c>
+      <c r="E5">
+        <v>1120</v>
+      </c>
+      <c r="F5">
+        <f>2225+1622+223</f>
+        <v>4070</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5">
+        <v>9609</v>
+      </c>
+      <c r="L5">
+        <v>6797</v>
+      </c>
+      <c r="M5">
+        <v>1120</v>
+      </c>
+      <c r="N5">
+        <f>2225+1622+223</f>
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>6469</v>
+      </c>
+      <c r="D6">
+        <v>6253</v>
+      </c>
+      <c r="E6">
+        <v>1248</v>
+      </c>
+      <c r="F6">
+        <f>5539+1750+337</f>
+        <v>7626</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>6469</v>
+      </c>
+      <c r="L6">
+        <v>6253</v>
+      </c>
+      <c r="M6">
+        <v>1248</v>
+      </c>
+      <c r="N6">
+        <f>5539+1750+337</f>
+        <v>7626</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1">
-        <f>SUM(C3:C4)</f>
-        <v>21607</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:F5" si="0">SUM(D3:D4)</f>
-        <v>15166</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C7" s="1">
+        <f>SUM(C3:C6)</f>
+        <v>37685</v>
+      </c>
+      <c r="D7" s="1">
+        <f>SUM(D3:D6)</f>
+        <v>28216</v>
+      </c>
+      <c r="E7" s="1">
+        <f>SUM(E3:E6)</f>
+        <v>5255</v>
+      </c>
+      <c r="F7" s="1">
+        <f>SUM(F3:F6)</f>
+        <v>15220</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="4">
+        <f>SUM(K3:K6)/SUM(K3:N6)</f>
+        <v>0.43629017319625824</v>
+      </c>
+      <c r="L7" s="4">
+        <f>SUM(L3:L6)/SUM(K3:N6)</f>
+        <v>0.32666481430026861</v>
+      </c>
+      <c r="M7" s="4">
+        <f>SUM(M3:M6)/SUM(K3:N6)</f>
+        <v>6.0838658886727792E-2</v>
+      </c>
+      <c r="N7" s="4">
+        <f>SUM(N3:N6)/SUM(K3:N6)</f>
+        <v>0.17620635361674539</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>10847</v>
+      </c>
+      <c r="D8">
+        <v>8719</v>
+      </c>
+      <c r="E8">
+        <v>1399</v>
+      </c>
+      <c r="F8">
+        <v>631</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>10847</v>
+      </c>
+      <c r="L8">
+        <v>8719</v>
+      </c>
+      <c r="M8">
+        <v>1399</v>
+      </c>
+      <c r="N8">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>7553</v>
+      </c>
+      <c r="D9">
+        <v>9161</v>
+      </c>
+      <c r="E9">
+        <v>1179</v>
+      </c>
+      <c r="F9">
+        <v>3703</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>7553</v>
+      </c>
+      <c r="L9">
+        <v>9161</v>
+      </c>
+      <c r="M9">
+        <v>1179</v>
+      </c>
+      <c r="N9">
+        <v>3703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>8488</v>
+      </c>
+      <c r="D10">
+        <v>8978</v>
+      </c>
+      <c r="E10">
+        <v>1170</v>
+      </c>
+      <c r="F10">
+        <f>2886+33+41</f>
+        <v>2960</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10">
+        <v>8488</v>
+      </c>
+      <c r="L10">
+        <v>8978</v>
+      </c>
+      <c r="M10">
+        <v>1170</v>
+      </c>
+      <c r="N10">
+        <f>2886+33+41</f>
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>7757</v>
+      </c>
+      <c r="D11">
+        <v>8798</v>
+      </c>
+      <c r="E11">
+        <v>1395</v>
+      </c>
+      <c r="F11">
+        <f>3259+347+40</f>
+        <v>3646</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <v>7757</v>
+      </c>
+      <c r="L11">
+        <v>8798</v>
+      </c>
+      <c r="M11">
+        <v>1395</v>
+      </c>
+      <c r="N11">
+        <f>3259+347+40</f>
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <f>SUM(C8:C11)</f>
+        <v>34645</v>
+      </c>
+      <c r="D12" s="1">
+        <f>SUM(D8:D11)</f>
+        <v>35656</v>
+      </c>
+      <c r="E12" s="1">
+        <f>SUM(E8:E11)</f>
+        <v>5143</v>
+      </c>
+      <c r="F12" s="1">
+        <f>SUM(F8:F11)</f>
+        <v>10940</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="4">
+        <f>SUM(K8:K11)/SUM(K8:N11)</f>
+        <v>0.40105806630857566</v>
+      </c>
+      <c r="L12" s="4">
+        <f>SUM(L8:L11)/SUM(K8:N11)</f>
+        <v>0.41276162252268939</v>
+      </c>
+      <c r="M12" s="4">
+        <f>SUM(M8:M11)/SUM(K8:N11)</f>
+        <v>5.9536488238562696E-2</v>
+      </c>
+      <c r="N12" s="4">
+        <f>SUM(N8:N11)/SUM(K8:N11)</f>
+        <v>0.12664382293017226</v>
+      </c>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>10557</v>
+      </c>
+      <c r="D13">
+        <v>7238</v>
+      </c>
+      <c r="E13">
+        <v>1363</v>
+      </c>
+      <c r="F13">
+        <v>318</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>10557</v>
+      </c>
+      <c r="L13">
+        <v>7238</v>
+      </c>
+      <c r="M13">
+        <v>1363</v>
+      </c>
+      <c r="N13">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>7354</v>
+      </c>
+      <c r="D14">
+        <v>7790</v>
+      </c>
+      <c r="E14">
+        <v>1132</v>
+      </c>
+      <c r="F14">
+        <v>1151</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>7354</v>
+      </c>
+      <c r="L14">
+        <v>7790</v>
+      </c>
+      <c r="M14">
+        <v>1132</v>
+      </c>
+      <c r="N14">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1">
+        <f>SUM(C13:C14)</f>
+        <v>17911</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" ref="D15:F15" si="0">SUM(D13:D14)</f>
+        <v>15028</v>
+      </c>
+      <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>2887</v>
-      </c>
-      <c r="F5" s="1">
+        <v>2495</v>
+      </c>
+      <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>3524</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="3">
-        <f>SUM(K3:K4)/43200</f>
-        <v>0.50016203703703699</v>
-      </c>
-      <c r="L5" s="3">
-        <f t="shared" ref="L5:N5" si="1">SUM(L3:L4)/43200</f>
-        <v>0.35106481481481483</v>
-      </c>
-      <c r="M5" s="3">
+      <c r="K15" s="2">
+        <f>SUM(K13:K14)/36903</f>
+        <v>0.48535349429585672</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" ref="L15:N15" si="1">SUM(L13:L14)/36903</f>
+        <v>0.40722976451778986</v>
+      </c>
+      <c r="M15" s="2">
         <f t="shared" si="1"/>
-        <v>6.682870370370371E-2</v>
-      </c>
-      <c r="N5" s="3">
+        <v>6.7609679429856656E-2</v>
+      </c>
+      <c r="N15" s="2">
         <f t="shared" si="1"/>
-        <v>8.1574074074074077E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>10847</v>
-      </c>
-      <c r="D6">
-        <v>8719</v>
-      </c>
-      <c r="E6">
-        <v>1399</v>
-      </c>
-      <c r="F6">
-        <v>631</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>10847</v>
-      </c>
-      <c r="L6">
-        <v>8719</v>
-      </c>
-      <c r="M6">
-        <v>1399</v>
-      </c>
-      <c r="N6">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>7553</v>
-      </c>
-      <c r="D7">
-        <v>9161</v>
-      </c>
-      <c r="E7">
-        <v>1179</v>
-      </c>
-      <c r="F7">
-        <v>3703</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>7553</v>
-      </c>
-      <c r="L7">
-        <v>9161</v>
-      </c>
-      <c r="M7">
-        <v>1179</v>
-      </c>
-      <c r="N7">
-        <v>3703</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1">
-        <f>SUM(C6:C7)</f>
-        <v>18400</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" ref="D8:F8" si="2">SUM(D6:D7)</f>
-        <v>17880</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="2"/>
-        <v>2578</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="2"/>
-        <v>4334</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="3">
-        <f>SUM(K6:K7)/43200</f>
-        <v>0.42592592592592593</v>
-      </c>
-      <c r="L8" s="3">
-        <f t="shared" ref="L8:N8" si="3">SUM(L6:L7)/43200</f>
-        <v>0.41388888888888886</v>
-      </c>
-      <c r="M8" s="3">
-        <f t="shared" si="3"/>
-        <v>5.9675925925925924E-2</v>
-      </c>
-      <c r="N8" s="3">
-        <f t="shared" si="3"/>
-        <v>0.10032407407407408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>10557</v>
-      </c>
-      <c r="D9">
-        <v>7238</v>
-      </c>
-      <c r="E9">
-        <v>1363</v>
-      </c>
-      <c r="F9">
-        <v>318</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>10557</v>
-      </c>
-      <c r="L9">
-        <v>7238</v>
-      </c>
-      <c r="M9">
-        <v>1363</v>
-      </c>
-      <c r="N9">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>7354</v>
-      </c>
-      <c r="D10">
-        <v>7790</v>
-      </c>
-      <c r="E10">
-        <v>1132</v>
-      </c>
-      <c r="F10">
-        <v>1151</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <v>7354</v>
-      </c>
-      <c r="L10">
-        <v>7790</v>
-      </c>
-      <c r="M10">
-        <v>1132</v>
-      </c>
-      <c r="N10">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1">
-        <f>SUM(C9:C10)</f>
-        <v>17911</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" ref="D11:F11" si="4">SUM(D9:D10)</f>
-        <v>15028</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="4"/>
-        <v>2495</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="4"/>
-        <v>1469</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="3">
-        <f>SUM(K9:K10)/36903</f>
-        <v>0.48535349429585672</v>
-      </c>
-      <c r="L11" s="3">
-        <f t="shared" ref="L11:N11" si="5">SUM(L9:L10)/36903</f>
-        <v>0.40722976451778986</v>
-      </c>
-      <c r="M11" s="3">
-        <f t="shared" si="5"/>
-        <v>6.7609679429856656E-2</v>
-      </c>
-      <c r="N11" s="3">
-        <f t="shared" si="5"/>
         <v>3.9807061756496759E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="I8:I12"/>
+    <mergeCell ref="I13:I15"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
